--- a/renduProjet/Rendu-Projet-Part1.xlsx
+++ b/renduProjet/Rendu-Projet-Part1.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/renduProjet/Rendu-Projet-Part1.xlsx
+++ b/renduProjet/Rendu-Projet-Part1.xlsx
@@ -407,10 +407,10 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.33"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
